--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FB91E8-A24F-42EB-A9F6-2D513F0B5115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607DF68-E8DE-4DEE-8C5D-EA5B63EC8DB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14B" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="182">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -79,24 +76,6 @@
     <t>0402 287 174</t>
   </si>
   <si>
-    <t>Derham, David</t>
-  </si>
-  <si>
-    <t>Derham, Deanna</t>
-  </si>
-  <si>
-    <t>0414 952 117</t>
-  </si>
-  <si>
-    <t>dderham@ldb.com.au</t>
-  </si>
-  <si>
-    <t>Derham, Charles</t>
-  </si>
-  <si>
-    <t>0438 347 600</t>
-  </si>
-  <si>
     <t>Hannan, Chad</t>
   </si>
   <si>
@@ -238,24 +217,6 @@
     <t>0401 277 083</t>
   </si>
   <si>
-    <t>Darmawan, Zyon</t>
-  </si>
-  <si>
-    <t>Darmawan, Tracey</t>
-  </si>
-  <si>
-    <t>0402 289 783</t>
-  </si>
-  <si>
-    <t>darmawan1@bigpond.com</t>
-  </si>
-  <si>
-    <t>Darmawan, Gede</t>
-  </si>
-  <si>
-    <t>0400 848 167</t>
-  </si>
-  <si>
     <t>Edwards, Aidan</t>
   </si>
   <si>
@@ -361,15 +322,9 @@
     <t>Prior, Owen</t>
   </si>
   <si>
-    <t>Prior, Tracey</t>
-  </si>
-  <si>
     <t>0438 361 434</t>
   </si>
   <si>
-    <t>trace.1973@bigpond.com</t>
-  </si>
-  <si>
     <t>Prior, Martin</t>
   </si>
   <si>
@@ -388,156 +343,6 @@
     <t>bkck0208@gmail.com</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Caird, Nicholas</t>
-  </si>
-  <si>
-    <t>Rowles, Cynthia</t>
-  </si>
-  <si>
-    <t>0405 104 279</t>
-  </si>
-  <si>
-    <t>cynthia.rowles@y7mail.com</t>
-  </si>
-  <si>
-    <t>Caird, Robert</t>
-  </si>
-  <si>
-    <t>0405 382 911</t>
-  </si>
-  <si>
-    <t>Jones, Oliver</t>
-  </si>
-  <si>
-    <t>de Bruin, Karla</t>
-  </si>
-  <si>
-    <t>0415 922 667</t>
-  </si>
-  <si>
-    <t>karlatw@live.com</t>
-  </si>
-  <si>
-    <t>Obrien, William</t>
-  </si>
-  <si>
-    <t>Davis, Rebecca</t>
-  </si>
-  <si>
-    <t>0474 804 401</t>
-  </si>
-  <si>
-    <t>bexobr@gmail.com</t>
-  </si>
-  <si>
-    <t>Peppler, Jack</t>
-  </si>
-  <si>
-    <t>Peppler, Damien</t>
-  </si>
-  <si>
-    <t>0413 125 590</t>
-  </si>
-  <si>
-    <t>nadfoz@bigpond.com</t>
-  </si>
-  <si>
-    <t>Peppler, Nadine</t>
-  </si>
-  <si>
-    <t>0488 444 367</t>
-  </si>
-  <si>
-    <t>Scott, Brodie</t>
-  </si>
-  <si>
-    <t>Scott, Meaghan</t>
-  </si>
-  <si>
-    <t>0434 770 174</t>
-  </si>
-  <si>
-    <t>megscott12@outlook.com</t>
-  </si>
-  <si>
-    <t>Stafford, Aiden</t>
-  </si>
-  <si>
-    <t>Stafford, Andrew</t>
-  </si>
-  <si>
-    <t>0450 784 904</t>
-  </si>
-  <si>
-    <t>staffman1973@gmail.com</t>
-  </si>
-  <si>
-    <t>Tuigamala-Nukunuku, Pakura Johnson</t>
-  </si>
-  <si>
-    <t>Faasalafa, Florence</t>
-  </si>
-  <si>
-    <t>0487 405 857</t>
-  </si>
-  <si>
-    <t>florence.faasalafa@gmail.com</t>
-  </si>
-  <si>
-    <t>Nukunuku, Tee</t>
-  </si>
-  <si>
-    <t>0414 131 923</t>
-  </si>
-  <si>
-    <t>Tuigamala-faasalafa, Pakura Johnson</t>
-  </si>
-  <si>
-    <t>0481 270 993</t>
-  </si>
-  <si>
-    <t>florence.faasalafa@hotmail.com</t>
-  </si>
-  <si>
-    <t>Nukunuku, Tekooti</t>
-  </si>
-  <si>
-    <t>0450 230 834</t>
-  </si>
-  <si>
-    <t>Ul-Malik, Naim</t>
-  </si>
-  <si>
-    <t>Malik, Nadeem</t>
-  </si>
-  <si>
-    <t>0433 937 900</t>
-  </si>
-  <si>
-    <t>nadeemask_75@hotmail.com</t>
-  </si>
-  <si>
-    <t>Urban, Tyler</t>
-  </si>
-  <si>
-    <t>williamson, brooke</t>
-  </si>
-  <si>
-    <t>0402 624 557</t>
-  </si>
-  <si>
-    <t>brooke.williamson@griffithuni.edu.au</t>
-  </si>
-  <si>
-    <t>urban, shayne</t>
-  </si>
-  <si>
-    <t>0422 743 034</t>
-  </si>
-  <si>
     <t>White, Blake</t>
   </si>
   <si>
@@ -547,31 +352,61 @@
     <t>0447 969 659</t>
   </si>
   <si>
-    <t>fleur_gilmore@hotmail.com</t>
-  </si>
-  <si>
     <t>White, Guy</t>
   </si>
   <si>
     <t>0447 862 273</t>
   </si>
   <si>
-    <t>rogers, travis</t>
-  </si>
-  <si>
-    <t>rogers, vanessa</t>
-  </si>
-  <si>
-    <t>0431 258 315</t>
-  </si>
-  <si>
-    <t>vanessa71171@hotmail.com</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Milley, Rhys</t>
+  </si>
+  <si>
+    <t>Milley, Troy</t>
+  </si>
+  <si>
+    <t>0408 132 475</t>
+  </si>
+  <si>
+    <t>admin@tpmbs.com.au</t>
+  </si>
+  <si>
+    <t>Milley, Lisa</t>
+  </si>
+  <si>
+    <t>0438 596 821</t>
+  </si>
+  <si>
+    <t>Bird, Tracey</t>
+  </si>
+  <si>
+    <t>traceybird462@gmail.com</t>
+  </si>
+  <si>
+    <t>hello@shannonwhite.com.au</t>
+  </si>
+  <si>
+    <t>Sales, Fletcher</t>
+  </si>
+  <si>
+    <t>Sales, Stuart</t>
+  </si>
+  <si>
+    <t>0427 934 100</t>
+  </si>
+  <si>
+    <t>foursunsgardencare@gmail.com</t>
+  </si>
+  <si>
+    <t>Sales, Petra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,6 +899,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1071,7 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1426,12 +1261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1441,887 +1276,614 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F23" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D25" t="s">
         <v>96</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E25" t="s">
         <v>97</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F25" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="F23" t="s">
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>181</v>
-      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607DF68-E8DE-4DEE-8C5D-EA5B63EC8DB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AF8E1-B6D1-4069-9B25-A9D1618488E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -401,6 +401,24 @@
   </si>
   <si>
     <t>Sales, Petra</t>
+  </si>
+  <si>
+    <t>Pollard, Mason</t>
+  </si>
+  <si>
+    <t>Pollard, Damon</t>
+  </si>
+  <si>
+    <t>0400 131 510</t>
+  </si>
+  <si>
+    <t>dpollard120887@gmail.com</t>
+  </si>
+  <si>
+    <t>Pollard, Ashleigh</t>
+  </si>
+  <si>
+    <t>0413 213 001</t>
   </si>
 </sst>
 </file>
@@ -1454,418 +1472,432 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1877,13 +1909,11 @@
       <c r="G29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AF8E1-B6D1-4069-9B25-A9D1618488E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CA082-F855-49E8-958C-376D791488A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14B" sheetId="1" r:id="rId1"/>
@@ -412,13 +412,13 @@
     <t>0400 131 510</t>
   </si>
   <si>
-    <t>dpollard120887@gmail.com</t>
-  </si>
-  <si>
     <t>Pollard, Ashleigh</t>
   </si>
   <si>
     <t>0413 213 001</t>
+  </si>
+  <si>
+    <t>mcswan_@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1280,21 +1280,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1470,30 +1470,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>127</v>
       </c>
       <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>129</v>
       </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>132</v>
       </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -1898,15 +1898,6 @@
       <c r="G28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CA082-F855-49E8-958C-376D791488A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73E2A4-3C56-4EBB-8166-CD998BE96F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14B" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -196,129 +196,6 @@
     <t>0425 850 177</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Collins, Riley</t>
-  </si>
-  <si>
-    <t>Collins, Michael</t>
-  </si>
-  <si>
-    <t>0407 292 417</t>
-  </si>
-  <si>
-    <t>michaelc@conwayelectrics.com.au</t>
-  </si>
-  <si>
-    <t>Collins, Sandra</t>
-  </si>
-  <si>
-    <t>0401 277 083</t>
-  </si>
-  <si>
-    <t>Edwards, Aidan</t>
-  </si>
-  <si>
-    <t>Robins, Tamara</t>
-  </si>
-  <si>
-    <t>0414 575 770</t>
-  </si>
-  <si>
-    <t>tamararobins@hotmail.com</t>
-  </si>
-  <si>
-    <t>Edwards, Nathan</t>
-  </si>
-  <si>
-    <t>0400 116 212</t>
-  </si>
-  <si>
-    <t>Hapuarachchi, Ezra</t>
-  </si>
-  <si>
-    <t>Azoor, Tasnym</t>
-  </si>
-  <si>
-    <t>0424 635 007</t>
-  </si>
-  <si>
-    <t>tasbella@gmail.com</t>
-  </si>
-  <si>
-    <t>Hapuarachchi, Roshan</t>
-  </si>
-  <si>
-    <t>0425 855 326</t>
-  </si>
-  <si>
-    <t>Harris, Joel</t>
-  </si>
-  <si>
-    <t>Eagle, Nicole</t>
-  </si>
-  <si>
-    <t>0452 234 476</t>
-  </si>
-  <si>
-    <t>nicole.a.eagle@gmail.com</t>
-  </si>
-  <si>
-    <t>Hasslinger, Joshua</t>
-  </si>
-  <si>
-    <t>Carlin, Rachael</t>
-  </si>
-  <si>
-    <t>0478 519 009</t>
-  </si>
-  <si>
-    <t>suzanne.metz@mail.com</t>
-  </si>
-  <si>
-    <t>Carlin, Liam</t>
-  </si>
-  <si>
-    <t>0438 881 325</t>
-  </si>
-  <si>
-    <t>Mathews, Toby</t>
-  </si>
-  <si>
-    <t>Mathews, Tunde</t>
-  </si>
-  <si>
-    <t>0412 220 922</t>
-  </si>
-  <si>
-    <t>tundemathews@gmail.com</t>
-  </si>
-  <si>
-    <t>Mathews, Brad</t>
-  </si>
-  <si>
-    <t>0417 885 680</t>
-  </si>
-  <si>
-    <t>Pepperell, Jackson</t>
-  </si>
-  <si>
-    <t>Pepperell, David</t>
-  </si>
-  <si>
-    <t>0418 532 157</t>
-  </si>
-  <si>
-    <t>d.pepperell@bigpond.com</t>
-  </si>
-  <si>
-    <t>Pepperell, Melissa</t>
-  </si>
-  <si>
-    <t>0414 406 649</t>
-  </si>
-  <si>
     <t>Prior, Owen</t>
   </si>
   <si>
@@ -331,18 +208,6 @@
     <t>0430 219 376</t>
   </si>
   <si>
-    <t>kleverkamp, cody</t>
-  </si>
-  <si>
-    <t>Kleverkamp, Brendan</t>
-  </si>
-  <si>
-    <t>0412 236 531</t>
-  </si>
-  <si>
-    <t>bkck0208@gmail.com</t>
-  </si>
-  <si>
     <t>White, Blake</t>
   </si>
   <si>
@@ -388,21 +253,6 @@
     <t>hello@shannonwhite.com.au</t>
   </si>
   <si>
-    <t>Sales, Fletcher</t>
-  </si>
-  <si>
-    <t>Sales, Stuart</t>
-  </si>
-  <si>
-    <t>0427 934 100</t>
-  </si>
-  <si>
-    <t>foursunsgardencare@gmail.com</t>
-  </si>
-  <si>
-    <t>Sales, Petra</t>
-  </si>
-  <si>
     <t>Pollard, Mason</t>
   </si>
   <si>
@@ -419,6 +269,60 @@
   </si>
   <si>
     <t>mcswan_@hotmail.com</t>
+  </si>
+  <si>
+    <t>debrabuch74@gmail.com</t>
+  </si>
+  <si>
+    <t>hannanchad@hotmail.com</t>
+  </si>
+  <si>
+    <t>lisa.milley77@gmail.com</t>
+  </si>
+  <si>
+    <t>alissa_jane@hotmail.com</t>
+  </si>
+  <si>
+    <t>damon@live.com.au</t>
+  </si>
+  <si>
+    <t>Tauiliili, Kobe</t>
+  </si>
+  <si>
+    <t>Tauiliili, Aneti</t>
+  </si>
+  <si>
+    <t>0481 082 576</t>
+  </si>
+  <si>
+    <t>junior_tauiliili@outlook.com</t>
+  </si>
+  <si>
+    <t>Tauiliili, Sophea</t>
+  </si>
+  <si>
+    <t>0432 208 301</t>
+  </si>
+  <si>
+    <t>sophea.tauiliili@hotmail.com</t>
+  </si>
+  <si>
+    <t>Waters, Corey</t>
+  </si>
+  <si>
+    <t>Waters, Bradley</t>
+  </si>
+  <si>
+    <t>0423 889 002</t>
+  </si>
+  <si>
+    <t>bradwaters76@gmail.com</t>
+  </si>
+  <si>
+    <t>guy@whitehouse3.com</t>
+  </si>
+  <si>
+    <t>john.young@brilliantlighting.com.au</t>
   </si>
 </sst>
 </file>
@@ -1280,23 +1184,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1309,7 +1213,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1352,10 +1256,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1375,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1398,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1421,33 +1325,33 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1467,56 +1371,56 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1539,7 +1443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +1466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1582,329 +1486,128 @@
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>106</v>
+      <c r="G18" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73E2A4-3C56-4EBB-8166-CD998BE96F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF44D0-5CDF-4840-BE75-6F4E2DF20E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U14B" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>john.young@brilliantlighting.com.au</t>
+  </si>
+  <si>
+    <t>Hannan, Jett</t>
   </si>
 </sst>
 </file>
@@ -1184,9 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1307,300 +1312,323 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
     </row>

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF44D0-5CDF-4840-BE75-6F4E2DF20E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E640D72-64CD-46B4-84EC-E0B68FA2D29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -326,6 +326,123 @@
   </si>
   <si>
     <t>Hannan, Jett</t>
+  </si>
+  <si>
+    <t>Withers, Sean</t>
+  </si>
+  <si>
+    <t>Withers, Robert</t>
+  </si>
+  <si>
+    <t>0450 470 369</t>
+  </si>
+  <si>
+    <t>roboforpresident@gmail.com</t>
+  </si>
+  <si>
+    <t>Withers, Miki</t>
+  </si>
+  <si>
+    <t>0452 470 369</t>
+  </si>
+  <si>
+    <t>seanpuppy0319@gmail.com</t>
+  </si>
+  <si>
+    <t>Bayles, Aaron</t>
+  </si>
+  <si>
+    <t>BAYLES, CHRIS</t>
+  </si>
+  <si>
+    <t>0422 062 593</t>
+  </si>
+  <si>
+    <t>robyn_chris@hotmail.com</t>
+  </si>
+  <si>
+    <t>BAYLES, ROBYN</t>
+  </si>
+  <si>
+    <t>0413 081 254</t>
+  </si>
+  <si>
+    <t>Egan, Samuel</t>
+  </si>
+  <si>
+    <t>Egan, Rebecca</t>
+  </si>
+  <si>
+    <t>0421 523 425</t>
+  </si>
+  <si>
+    <t>kbegan20@gmail.com</t>
+  </si>
+  <si>
+    <t>Egan, Kris</t>
+  </si>
+  <si>
+    <t>0451 372 862</t>
+  </si>
+  <si>
+    <t>Hardman, Thomas</t>
+  </si>
+  <si>
+    <t>Hardman, David</t>
+  </si>
+  <si>
+    <t>0408 609 282</t>
+  </si>
+  <si>
+    <t>davidhardman@tpg.com.au</t>
+  </si>
+  <si>
+    <t>Anderson, Megg</t>
+  </si>
+  <si>
+    <t>0433 979 377</t>
+  </si>
+  <si>
+    <t>megghardman@gmail.com</t>
+  </si>
+  <si>
+    <t>Krawczyk, Alexander</t>
+  </si>
+  <si>
+    <t>Krawczyk, Brad</t>
+  </si>
+  <si>
+    <t>0400 500 626</t>
+  </si>
+  <si>
+    <t>narelle_burgess@workcoverassist.vic.gov.au</t>
+  </si>
+  <si>
+    <t>BURGESS, Narelle</t>
+  </si>
+  <si>
+    <t>0418 317 335</t>
+  </si>
+  <si>
+    <t>Murray, Tyler</t>
+  </si>
+  <si>
+    <t>Murray, Jeff</t>
+  </si>
+  <si>
+    <t>0432 449 833</t>
+  </si>
+  <si>
+    <t>jmurray896@gmail.com</t>
+  </si>
+  <si>
+    <t>Murray, Nicolette</t>
+  </si>
+  <si>
+    <t>0403 530 040</t>
+  </si>
+  <si>
+    <t>nicjeff846@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1187,11 +1304,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,183 +1381,183 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -1450,114 +1565,114 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1565,70 +1680,208 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G25" t="s">
         <v>100</v>
       </c>
     </row>

--- a/static/contact/U14B.xlsx
+++ b/static/contact/U14B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E640D72-64CD-46B4-84EC-E0B68FA2D29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6542D551-4832-4233-BC38-4965FDBB7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>nicjeff846@gmail.com</t>
+  </si>
+  <si>
+    <t>kleverkamp, cody</t>
+  </si>
+  <si>
+    <t>Kleverkamp, Brendan</t>
+  </si>
+  <si>
+    <t>0402 126 141</t>
+  </si>
+  <si>
+    <t>bkck0208@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,369 +1531,392 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>100</v>
       </c>
     </row>
